--- a/resources/volo-data/germimation-experiment.xlsx
+++ b/resources/volo-data/germimation-experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anneliserismann/Documents/GitHub/hdbot/resources/volo-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588A8082-A998-8A4E-B079-8BF1C156BEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73B7770-0BB6-7B40-ADE3-6629CD878AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{7911502E-23E9-144C-81EA-E4BDF800C8D6}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="219">
   <si>
     <t>Species</t>
   </si>
@@ -685,6 +686,12 @@
   </si>
   <si>
     <t>3 multiple seedlings</t>
+  </si>
+  <si>
+    <t>26.10.2020_count</t>
+  </si>
+  <si>
+    <t>26.10.2020_comment</t>
   </si>
 </sst>
 </file>
@@ -1052,13 +1059,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010A8CA-FF1D-184F-B35B-F43FF65F5364}">
-  <dimension ref="A1:X92"/>
+  <dimension ref="A1:Z92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O84" sqref="O84"/>
+      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1079,7 @@
     <col min="10" max="10" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1145,8 +1152,14 @@
       <c r="X1" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1208,7 +1221,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1270,7 +1283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1329,7 +1342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1385,7 +1398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1438,7 +1451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1494,7 +1507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -1541,7 +1554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1597,7 +1610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1656,7 +1669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1715,7 +1728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -1771,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1824,7 +1837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1880,7 +1893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1936,7 +1949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>

--- a/resources/volo-data/germimation-experiment.xlsx
+++ b/resources/volo-data/germimation-experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anneliserismann/Documents/GitHub/hdbot/resources/volo-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73B7770-0BB6-7B40-ADE3-6629CD878AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C81BB5-91A4-C646-8588-9C970A38C0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{7911502E-23E9-144C-81EA-E4BDF800C8D6}"/>
+    <workbookView xWindow="0" yWindow="3460" windowWidth="28800" windowHeight="16180" xr2:uid="{7911502E-23E9-144C-81EA-E4BDF800C8D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="232">
   <si>
     <t>Species</t>
   </si>
@@ -692,6 +692,45 @@
   </si>
   <si>
     <t>26.10.2020_comment</t>
+  </si>
+  <si>
+    <t>28.10.2021_count</t>
+  </si>
+  <si>
+    <t>each cell multiple sprouts</t>
+  </si>
+  <si>
+    <t>multiple seedlings per cell</t>
+  </si>
+  <si>
+    <t>4 cells full, all multiple seedlings</t>
+  </si>
+  <si>
+    <t>2 mushrooms as well</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>30.10.2021count</t>
+  </si>
+  <si>
+    <t>3 cells multiple sprouts</t>
+  </si>
+  <si>
+    <t>2 different sprouts</t>
+  </si>
+  <si>
+    <t>1/3 full</t>
+  </si>
+  <si>
+    <t>1/2 full</t>
+  </si>
+  <si>
+    <t>seedlins dying off</t>
+  </si>
+  <si>
+    <t>skip</t>
   </si>
 </sst>
 </file>
@@ -1059,431 +1098,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010A8CA-FF1D-184F-B35B-F43FF65F5364}">
-  <dimension ref="A1:Z92"/>
+  <dimension ref="A1:AE92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomRight" activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="59.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" customWidth="1"/>
-    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="1" max="2" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>202</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>201</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>44479</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>44481</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>44473</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>44477</v>
       </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2">
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>204</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>63</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>16</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>16</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>18</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>168</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>18</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z2">
+        <v>21</v>
+      </c>
+      <c r="AB2">
+        <v>21</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>44473</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>44477</v>
       </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3">
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>204</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>40</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>63</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>16</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>16</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>17</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>17</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>169</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>17</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z3">
+        <v>18</v>
+      </c>
+      <c r="AB3">
+        <v>18</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>44378</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>44477</v>
       </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4">
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
-        <v>166</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="K4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>64</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>8</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>11</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>11</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>11</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>11</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>170</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z4">
+        <v>11</v>
+      </c>
+      <c r="AB4">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>44473</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>44477</v>
       </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5">
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>203</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
         <v>65</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>5</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>7</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>7</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>9</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>8</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z5">
+        <v>9</v>
+      </c>
+      <c r="AB5">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>44473</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>44477</v>
       </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6">
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6">
         <v>11</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>204</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="M6">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>2</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>3</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>3</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>6</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>5</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z6">
+        <v>5</v>
+      </c>
+      <c r="AB6">
+        <v>5</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>44409</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>44477</v>
       </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7">
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7">
         <v>11</v>
       </c>
-      <c r="J7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
+      <c r="K7" t="s">
+        <v>166</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1491,276 +1578,321 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="O7">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>1</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>3</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>4</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z7">
+        <v>9</v>
+      </c>
+      <c r="AB7">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>164</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>44440</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>59</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>44477</v>
       </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8">
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8">
         <v>11</v>
       </c>
-      <c r="J8" t="s">
-        <v>166</v>
-      </c>
-      <c r="S8">
+      <c r="K8" t="s">
+        <v>166</v>
+      </c>
+      <c r="T8">
         <v>11</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>165</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>11</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>171</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z8">
+        <v>11</v>
+      </c>
+      <c r="AB8">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>44409</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>44477</v>
       </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9">
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9">
         <v>11</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>204</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>71</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>8</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>8</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>9</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>7</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>8</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z9">
+        <v>8</v>
+      </c>
+      <c r="AB9">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>44409</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>44477</v>
       </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10">
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10">
         <v>11</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>204</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
         <v>72</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>66</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>8</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>8</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z10">
+        <v>9</v>
+      </c>
+      <c r="AB10">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>44378</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>44477</v>
       </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11">
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11">
         <v>11</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>204</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
         <v>71</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>9</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>11</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>11</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>11</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>11</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>172</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z11">
+        <v>11</v>
+      </c>
+      <c r="AB11">
+        <v>11</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>206</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>44378</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>44477</v>
       </c>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12">
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12">
         <v>11</v>
       </c>
-      <c r="J12" t="s">
-        <v>166</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
+      <c r="K12" t="s">
+        <v>166</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1768,223 +1900,259 @@
       <c r="M12">
         <v>0</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>44378</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>44477</v>
       </c>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13">
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13">
         <v>11</v>
       </c>
-      <c r="J13" t="s">
-        <v>166</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="M13">
+      <c r="K13" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>11</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>11</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>11</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>11</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>11</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z13">
+        <v>11</v>
+      </c>
+      <c r="AB13">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>44440</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>44477</v>
       </c>
-      <c r="H14" t="s">
-        <v>24</v>
-      </c>
       <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
         <v>160</v>
       </c>
-      <c r="J14" t="s">
-        <v>166</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
+      <c r="K14" t="s">
+        <v>166</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>2</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>8</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>17</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>17</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>18</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14">
+        <v>18</v>
+      </c>
+      <c r="AB14">
+        <v>19</v>
+      </c>
+      <c r="AD14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>44440</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>36</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>44479</v>
       </c>
-      <c r="H15" t="s">
-        <v>24</v>
-      </c>
       <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
         <v>160</v>
       </c>
-      <c r="J15" t="s">
-        <v>166</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
+      <c r="K15" t="s">
+        <v>166</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>2</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>10</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>13</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>16</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>17</v>
       </c>
-      <c r="W15">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X15">
+        <v>24</v>
+      </c>
+      <c r="Z15">
+        <v>31</v>
+      </c>
+      <c r="AB15">
+        <v>32</v>
+      </c>
+      <c r="AD15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>88</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
       </c>
       <c r="E16" t="s">
         <v>42</v>
       </c>
       <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>44479</v>
       </c>
-      <c r="H16" t="s">
-        <v>24</v>
-      </c>
       <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
         <v>161</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>204</v>
       </c>
-      <c r="K16" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
+      <c r="L16" t="s">
+        <v>57</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1995,58 +2163,67 @@
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17">
+        <v>2019</v>
+      </c>
+      <c r="E17" t="s">
         <v>90</v>
       </c>
-      <c r="D17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>42</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>44482</v>
       </c>
-      <c r="H17" t="s">
-        <v>24</v>
-      </c>
       <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
         <v>161</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>203</v>
       </c>
-      <c r="K17" t="s">
-        <v>57</v>
-      </c>
       <c r="L17" t="s">
         <v>57</v>
       </c>
-      <c r="M17">
-        <v>0</v>
+      <c r="M17" t="s">
+        <v>57</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2054,948 +2231,1113 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>42</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>44482</v>
       </c>
-      <c r="H18" t="s">
-        <v>24</v>
-      </c>
       <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
         <v>161</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>203</v>
       </c>
-      <c r="K18" t="s">
-        <v>57</v>
-      </c>
       <c r="L18" t="s">
         <v>57</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
+      <c r="M18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>1</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>156</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>5</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>5</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>7</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z18">
+        <v>7</v>
+      </c>
+      <c r="AB18">
+        <v>7</v>
+      </c>
+      <c r="AD18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>85</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>91</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>2019</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>42</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" t="s">
-        <v>24</v>
-      </c>
+      <c r="H19" s="1"/>
       <c r="I19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
         <v>161</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>203</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>42</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>2020</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>42</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>44482</v>
       </c>
-      <c r="H20" t="s">
-        <v>24</v>
-      </c>
       <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
         <v>161</v>
       </c>
-      <c r="J20" t="s">
-        <v>166</v>
-      </c>
       <c r="K20" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="L20" t="s">
         <v>57</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
+      <c r="M20" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>1</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>156</v>
       </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>91</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>2019</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>42</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>44482</v>
       </c>
-      <c r="H21" t="s">
-        <v>24</v>
-      </c>
       <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
         <v>161</v>
       </c>
-      <c r="J21" t="s">
-        <v>166</v>
-      </c>
       <c r="K21" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="L21" t="s">
         <v>57</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
+      <c r="M21" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>7</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>157</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>7</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>7</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z21">
+        <v>7</v>
+      </c>
+      <c r="AB21">
+        <v>7</v>
+      </c>
+      <c r="AD21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>93</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>2020</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>42</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>44482</v>
       </c>
-      <c r="H22" t="s">
-        <v>24</v>
-      </c>
       <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" t="s">
         <v>161</v>
       </c>
-      <c r="J22" t="s">
-        <v>166</v>
-      </c>
       <c r="K22" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="L22" t="s">
         <v>57</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
+      <c r="M22" t="s">
+        <v>57</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>7</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>157</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>7</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>7</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z22">
+        <v>7</v>
+      </c>
+      <c r="AB22">
+        <v>7</v>
+      </c>
+      <c r="AD22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>94</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>95</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>2015</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>42</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" t="s">
-        <v>24</v>
-      </c>
+      <c r="H23" s="1"/>
       <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
         <v>161</v>
       </c>
-      <c r="J23" t="s">
-        <v>166</v>
-      </c>
       <c r="K23" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s">
         <v>57</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="S23">
+      <c r="M23" t="s">
+        <v>57</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <v>1</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>1</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>2</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>97</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>95</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>2015</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>42</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" t="s">
-        <v>24</v>
-      </c>
+      <c r="H24" s="1"/>
       <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
         <v>161</v>
       </c>
-      <c r="J24" t="s">
-        <v>166</v>
-      </c>
       <c r="K24" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="L24" t="s">
         <v>57</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="W24">
+      <c r="M24" t="s">
+        <v>57</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="X24">
         <v>1</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z24">
+        <v>6</v>
+      </c>
+      <c r="AB24">
+        <v>7</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>91</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>2020</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>42</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>44482</v>
       </c>
-      <c r="H25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K25" t="s">
-        <v>57</v>
+      <c r="K25" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="L25" t="s">
         <v>57</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="M25" t="s">
+        <v>57</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>6</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>158</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>7</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>157</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>7</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z25">
+        <v>7</v>
+      </c>
+      <c r="AB25">
+        <v>7</v>
+      </c>
+      <c r="AD25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>42</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>42</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>44482</v>
       </c>
-      <c r="H26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K26" t="s">
-        <v>57</v>
+      <c r="K26" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="L26" t="s">
         <v>57</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
+      <c r="M26" t="s">
+        <v>57</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="R26">
         <v>7</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>158</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>7</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>157</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>7</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z26">
+        <v>7</v>
+      </c>
+      <c r="AB26">
+        <v>7</v>
+      </c>
+      <c r="AD26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>50</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>42</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>2020</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>42</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>44482</v>
       </c>
-      <c r="H27" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K27" t="s">
-        <v>57</v>
+      <c r="K27" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="L27" t="s">
         <v>57</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="S27">
+      <c r="M27" t="s">
+        <v>57</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <v>2</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>3</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>3</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z27">
+        <v>3</v>
+      </c>
+      <c r="AB27">
+        <v>4</v>
+      </c>
+      <c r="AD27">
+        <v>4</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>51</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>23</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>2021</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>59</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>17</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>44482</v>
       </c>
-      <c r="H28" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K28" t="s">
-        <v>57</v>
-      </c>
       <c r="L28" t="s">
         <v>57</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="O28">
+      <c r="M28" t="s">
+        <v>57</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="P28">
         <v>5</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>5</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>6</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>7</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>7</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z28">
+        <v>7</v>
+      </c>
+      <c r="AB28">
+        <v>7</v>
+      </c>
+      <c r="AD28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>42</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>2020</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>42</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>44482</v>
       </c>
-      <c r="H29" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K29" t="s">
-        <v>57</v>
-      </c>
       <c r="L29" t="s">
         <v>57</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="M29" t="s">
+        <v>57</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D30" s="2">
         <v>44470</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>55</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>17</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>44483</v>
       </c>
-      <c r="H30" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K30" t="s">
-        <v>57</v>
-      </c>
       <c r="L30" t="s">
         <v>57</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30" t="s">
-        <v>57</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="S30">
+      <c r="M30" t="s">
+        <v>57</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>57</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="T30">
         <v>4</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>3</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z30">
+        <v>4</v>
+      </c>
+      <c r="AB30">
+        <v>3</v>
+      </c>
+      <c r="AD30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>58</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="2">
+      <c r="D31" s="2">
         <v>44440</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>59</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>17</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>44483</v>
       </c>
-      <c r="H31" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K31" t="s">
-        <v>57</v>
-      </c>
       <c r="L31" t="s">
         <v>57</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="O31">
+      <c r="M31" t="s">
+        <v>57</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="P31">
         <v>1</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>2</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>159</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>3</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>4</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>4</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z31">
+        <v>3</v>
+      </c>
+      <c r="AB31">
+        <v>5</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>60</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="2">
+      <c r="D32" s="2">
         <v>44378</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>59</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>17</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>44483</v>
       </c>
-      <c r="H32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K32" t="s">
-        <v>57</v>
+      <c r="K32" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="L32" t="s">
         <v>57</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="S32">
+      <c r="M32" t="s">
+        <v>57</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="T32">
         <v>2</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>7</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>7</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z32">
+        <v>7</v>
+      </c>
+      <c r="AB32">
+        <v>7</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>61</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D33" s="2">
         <v>44470</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>55</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>17</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>44483</v>
       </c>
-      <c r="H33" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K33" t="s">
-        <v>57</v>
+      <c r="K33" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="L33" t="s">
         <v>57</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="S33">
+      <c r="M33" t="s">
+        <v>57</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="T33">
         <v>2</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>167</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>2</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>87</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>42</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>122</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>44484</v>
       </c>
-      <c r="H34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K34" t="s">
-        <v>57</v>
+      <c r="K34" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="L34" t="s">
         <v>57</v>
@@ -3006,55 +3348,64 @@
       <c r="N34" t="s">
         <v>57</v>
       </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="U34">
+      <c r="O34" t="s">
+        <v>57</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="V34">
         <v>2</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>4</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z34">
+        <v>5</v>
+      </c>
+      <c r="AB34">
+        <v>6</v>
+      </c>
+      <c r="AD34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>73</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>42</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>122</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>44484</v>
       </c>
-      <c r="H35" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K35" t="s">
-        <v>57</v>
+      <c r="K35" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="L35" t="s">
         <v>57</v>
@@ -3065,55 +3416,70 @@
       <c r="N35" t="s">
         <v>57</v>
       </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="W35">
+      <c r="O35" t="s">
+        <v>57</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="X35">
         <v>1</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z35">
+        <v>2</v>
+      </c>
+      <c r="AB35">
+        <v>2</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD35">
+        <v>4</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>74</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>42</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>121</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>44484</v>
       </c>
-      <c r="H36" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K36" t="s">
-        <v>57</v>
+      <c r="K36" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="L36" t="s">
         <v>57</v>
@@ -3124,55 +3490,64 @@
       <c r="N36" t="s">
         <v>57</v>
       </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="U36">
+      <c r="O36" t="s">
+        <v>57</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="V36">
         <v>2</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>3</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z36">
+        <v>3</v>
+      </c>
+      <c r="AB36">
+        <v>4</v>
+      </c>
+      <c r="AD36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>75</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>42</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>121</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>44484</v>
       </c>
-      <c r="H37" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K37" t="s">
-        <v>57</v>
+      <c r="K37" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="L37" t="s">
         <v>57</v>
@@ -3183,53 +3558,62 @@
       <c r="N37" t="s">
         <v>57</v>
       </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O37" t="s">
+        <v>57</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>98</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>2019</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>42</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>122</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>44484</v>
       </c>
-      <c r="H38" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K38" t="s">
-        <v>57</v>
-      </c>
       <c r="L38" t="s">
         <v>57</v>
       </c>
@@ -3239,52 +3623,61 @@
       <c r="N38" t="s">
         <v>57</v>
       </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O38" t="s">
+        <v>57</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>99</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>100</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>2019</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>42</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>122</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>44484</v>
       </c>
-      <c r="H39" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K39" t="s">
-        <v>57</v>
+      <c r="K39" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="L39" t="s">
         <v>57</v>
@@ -3295,52 +3688,61 @@
       <c r="N39" t="s">
         <v>57</v>
       </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O39" t="s">
+        <v>57</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>77</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>93</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>2019</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>42</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>122</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>44484</v>
       </c>
-      <c r="H40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K40" t="s">
-        <v>57</v>
+      <c r="K40" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="L40" t="s">
         <v>57</v>
@@ -3351,55 +3753,64 @@
       <c r="N40" t="s">
         <v>57</v>
       </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="S40">
+      <c r="O40" t="s">
+        <v>57</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="T40">
         <v>7</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>7</v>
       </c>
-      <c r="V40" t="s">
-        <v>166</v>
-      </c>
-      <c r="W40">
+      <c r="W40" t="s">
+        <v>166</v>
+      </c>
+      <c r="X40">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z40">
+        <v>7</v>
+      </c>
+      <c r="AB40">
+        <v>7</v>
+      </c>
+      <c r="AD40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>78</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>93</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>2016</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>42</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>122</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <v>44484</v>
       </c>
-      <c r="H41" t="s">
-        <v>24</v>
-      </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K41" t="s">
-        <v>57</v>
+      <c r="K41" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="L41" t="s">
         <v>57</v>
@@ -3410,53 +3821,62 @@
       <c r="N41" t="s">
         <v>57</v>
       </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="W41">
+      <c r="O41" t="s">
+        <v>57</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="X41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z41">
+        <v>6</v>
+      </c>
+      <c r="AB41">
+        <v>7</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>79</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>42</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>2020</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>42</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>122</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>44484</v>
       </c>
-      <c r="H42" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K42" t="s">
-        <v>57</v>
-      </c>
       <c r="L42" t="s">
         <v>57</v>
       </c>
@@ -3466,53 +3886,62 @@
       <c r="N42" t="s">
         <v>57</v>
       </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="S42">
+      <c r="O42" t="s">
+        <v>57</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="T42">
         <v>1</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>1</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z42">
+        <v>1</v>
+      </c>
+      <c r="AB42">
+        <v>6</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>80</v>
       </c>
-      <c r="B43" t="s">
-        <v>57</v>
-      </c>
       <c r="C43" t="s">
         <v>57</v>
       </c>
-      <c r="E43" t="s">
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" t="s">
         <v>42</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>122</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>44484</v>
       </c>
-      <c r="H43" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K43" t="s">
-        <v>57</v>
-      </c>
       <c r="L43" t="s">
         <v>57</v>
       </c>
@@ -3522,53 +3951,62 @@
       <c r="N43" t="s">
         <v>57</v>
       </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O43" t="s">
+        <v>57</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>81</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>101</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>2020</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>42</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>122</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <v>44484</v>
       </c>
-      <c r="H44" t="s">
-        <v>24</v>
-      </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K44" t="s">
-        <v>57</v>
-      </c>
       <c r="L44" t="s">
         <v>57</v>
       </c>
@@ -3578,53 +4016,62 @@
       <c r="N44" t="s">
         <v>57</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O44" t="s">
+        <v>57</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>82</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>100</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>2019</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>42</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>122</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <v>44484</v>
       </c>
-      <c r="H45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K45" t="s">
-        <v>57</v>
-      </c>
       <c r="L45" t="s">
         <v>57</v>
       </c>
@@ -3634,52 +4081,61 @@
       <c r="N45" t="s">
         <v>57</v>
       </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O45" t="s">
+        <v>57</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>83</v>
       </c>
-      <c r="B46" t="s">
-        <v>57</v>
-      </c>
       <c r="C46" t="s">
         <v>57</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D46" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" t="s">
         <v>42</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>122</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <v>44484</v>
       </c>
-      <c r="H46" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K46" t="s">
-        <v>57</v>
+      <c r="K46" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="L46" t="s">
         <v>57</v>
@@ -3690,56 +4146,65 @@
       <c r="N46" t="s">
         <v>57</v>
       </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="S46">
+      <c r="O46" t="s">
+        <v>57</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="T46">
         <v>2</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>4</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>4</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z46">
+        <v>4</v>
+      </c>
+      <c r="AB46">
+        <v>7</v>
+      </c>
+      <c r="AD46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>84</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>42</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>2020</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>42</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>122</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <v>44484</v>
       </c>
-      <c r="H47" t="s">
-        <v>24</v>
-      </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K47" t="s">
-        <v>57</v>
-      </c>
       <c r="L47" t="s">
         <v>57</v>
       </c>
@@ -3749,1873 +4214,2311 @@
       <c r="N47" t="s">
         <v>57</v>
       </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="U47">
+      <c r="O47" t="s">
+        <v>57</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="V47">
         <v>2</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>4</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z47">
+        <v>5</v>
+      </c>
+      <c r="AB47">
+        <v>6</v>
+      </c>
+      <c r="AD47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>102</v>
       </c>
-      <c r="B48" t="s">
-        <v>57</v>
-      </c>
       <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
         <v>103</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>42</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>122</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <v>44484</v>
       </c>
-      <c r="H48" t="s">
-        <v>24</v>
-      </c>
       <c r="I48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" t="s">
         <v>142</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>105</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>106</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>2020</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>42</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>122</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <v>44485</v>
       </c>
-      <c r="H49" t="s">
-        <v>24</v>
-      </c>
       <c r="I49" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" t="s">
         <v>141</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>3</v>
+      </c>
+      <c r="AD49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>107</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>42</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>2020</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>42</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>122</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <v>44485</v>
       </c>
-      <c r="H50" t="s">
-        <v>24</v>
-      </c>
       <c r="I50" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" t="s">
         <v>141</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>2</v>
+      </c>
+      <c r="AD50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>108</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>115</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>2020</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>17</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>178</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <v>44485</v>
       </c>
-      <c r="H51" t="s">
-        <v>24</v>
-      </c>
       <c r="I51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" t="s">
         <v>141</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="S51" t="s">
-        <v>166</v>
-      </c>
-      <c r="U51" t="s">
-        <v>166</v>
-      </c>
-      <c r="W51" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="T51" t="s">
+        <v>166</v>
+      </c>
+      <c r="V51" t="s">
+        <v>166</v>
+      </c>
+      <c r="X51" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>109</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>12</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>2020</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>17</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>178</v>
       </c>
-      <c r="G52" s="1">
+      <c r="H52" s="1">
         <v>44485</v>
       </c>
-      <c r="H52" t="s">
-        <v>24</v>
-      </c>
       <c r="I52" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" t="s">
         <v>141</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="S52">
+      <c r="K52" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="T52">
         <v>10</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>16</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z52">
+        <v>19</v>
+      </c>
+      <c r="AB52">
+        <v>19</v>
+      </c>
+      <c r="AD52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>110</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>12</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>2020</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>17</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>178</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <v>44485</v>
       </c>
-      <c r="H53" t="s">
-        <v>24</v>
-      </c>
       <c r="I53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" t="s">
         <v>141</v>
       </c>
-      <c r="J53" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="S53" t="s">
-        <v>166</v>
-      </c>
-      <c r="U53" t="s">
-        <v>166</v>
-      </c>
-      <c r="W53" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K53" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="T53" t="s">
+        <v>166</v>
+      </c>
+      <c r="V53" t="s">
+        <v>166</v>
+      </c>
+      <c r="X53" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>86</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>42</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>2020</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>42</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>122</v>
       </c>
-      <c r="G54" s="1">
+      <c r="H54" s="1">
         <v>44485</v>
       </c>
-      <c r="H54" t="s">
-        <v>24</v>
-      </c>
       <c r="I54" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" t="s">
         <v>141</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>205</v>
       </c>
-      <c r="B55" t="s">
-        <v>57</v>
-      </c>
       <c r="C55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" t="s">
         <v>116</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>42</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>122</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <v>44485</v>
       </c>
-      <c r="H55" t="s">
-        <v>24</v>
-      </c>
       <c r="I55" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" t="s">
         <v>141</v>
       </c>
-      <c r="J55" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="W55">
+      <c r="K55" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="X55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z55">
+        <v>1</v>
+      </c>
+      <c r="AB55">
+        <v>7</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>111</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>93</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>2020</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>42</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>122</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <v>44485</v>
       </c>
-      <c r="H56" t="s">
-        <v>24</v>
-      </c>
       <c r="I56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" t="s">
         <v>141</v>
       </c>
-      <c r="J56" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="S56" t="s">
-        <v>166</v>
-      </c>
-      <c r="U56" t="s">
-        <v>166</v>
-      </c>
-      <c r="W56" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K56" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="T56" t="s">
+        <v>166</v>
+      </c>
+      <c r="V56" t="s">
+        <v>166</v>
+      </c>
+      <c r="X56" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>112</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>117</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>2019</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>42</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>122</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <v>44485</v>
       </c>
-      <c r="H57" t="s">
-        <v>24</v>
-      </c>
       <c r="I57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" t="s">
         <v>141</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>10</v>
+      </c>
+      <c r="AB57">
+        <v>15</v>
+      </c>
+      <c r="AD57">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>113</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>42</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>2020</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>42</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>122</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H58" s="1">
         <v>44485</v>
       </c>
-      <c r="H58" t="s">
-        <v>24</v>
-      </c>
       <c r="I58" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" t="s">
         <v>141</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="S58">
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="T58">
         <v>1</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>1</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z58">
+        <v>2</v>
+      </c>
+      <c r="AB58">
+        <v>2</v>
+      </c>
+      <c r="AD58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>114</v>
       </c>
-      <c r="B59" t="s">
-        <v>57</v>
-      </c>
       <c r="C59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" t="s">
         <v>103</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>42</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>122</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <v>44485</v>
       </c>
-      <c r="H59" t="s">
-        <v>24</v>
-      </c>
       <c r="I59" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" t="s">
         <v>141</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="K59" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>1</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>119</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>23</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>2021</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>55</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>17</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>123</v>
       </c>
-      <c r="G60" s="1">
+      <c r="H60" s="1">
         <v>44486</v>
       </c>
-      <c r="H60" t="s">
-        <v>24</v>
-      </c>
       <c r="I60" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" t="s">
         <v>141</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>120</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>23</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>2021</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>55</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>17</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>123</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <v>44486</v>
       </c>
-      <c r="H61" t="s">
-        <v>24</v>
-      </c>
       <c r="I61" t="s">
+        <v>24</v>
+      </c>
+      <c r="J61" t="s">
         <v>141</v>
       </c>
-      <c r="J61" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K61" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>14</v>
+      </c>
+      <c r="AD61">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>6</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="2">
+      <c r="D62" s="2">
         <v>44440</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>20</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>17</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>125</v>
       </c>
-      <c r="G62" s="1">
+      <c r="H62" s="1">
         <v>44486</v>
       </c>
-      <c r="H62" t="s">
-        <v>24</v>
-      </c>
       <c r="I62" t="s">
+        <v>24</v>
+      </c>
+      <c r="J62" t="s">
         <v>141</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="U62">
+      <c r="K62" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="V62">
         <v>1</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z62">
+        <v>6</v>
+      </c>
+      <c r="AB62">
+        <v>7</v>
+      </c>
+      <c r="AD62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="2">
+      <c r="D63" s="2">
         <v>44409</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>20</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>17</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>131</v>
       </c>
-      <c r="G63" s="1">
+      <c r="H63" s="1">
         <v>44486</v>
       </c>
-      <c r="H63" t="s">
-        <v>24</v>
-      </c>
       <c r="I63" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" t="s">
         <v>141</v>
       </c>
-      <c r="J63" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K63" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>82</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>95</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>2015</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>132</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>42</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>122</v>
       </c>
-      <c r="G64" s="1">
+      <c r="H64" s="1">
         <v>44486</v>
       </c>
-      <c r="H64" t="s">
-        <v>24</v>
-      </c>
       <c r="I64" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" t="s">
         <v>141</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="K64" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>127</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>130</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>2019</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>20</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>42</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>122</v>
       </c>
-      <c r="G65" s="1">
+      <c r="H65" s="1">
         <v>44486</v>
       </c>
-      <c r="H65" t="s">
-        <v>24</v>
-      </c>
       <c r="I65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" t="s">
         <v>141</v>
       </c>
-      <c r="J65" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="U65">
+      <c r="K65" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="V65">
         <v>8</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>29</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z65" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>109</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>95</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>2015</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>20</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>42</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>122</v>
       </c>
-      <c r="G66" s="1">
+      <c r="H66" s="1">
         <v>44486</v>
       </c>
-      <c r="H66" t="s">
-        <v>24</v>
-      </c>
       <c r="I66" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" t="s">
         <v>141</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>2</v>
+      </c>
+      <c r="AB66">
+        <v>2</v>
+      </c>
+      <c r="AD66">
+        <v>2</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>128</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>95</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>2016</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>20</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>42</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>122</v>
       </c>
-      <c r="G67" s="1">
+      <c r="H67" s="1">
         <v>44486</v>
       </c>
-      <c r="H67" t="s">
-        <v>24</v>
-      </c>
       <c r="I67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" t="s">
         <v>141</v>
       </c>
-      <c r="J67" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="W67">
+      <c r="K67" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="X67">
         <v>22</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z67" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>133</v>
       </c>
-      <c r="D68" t="s">
+      <c r="C68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68">
+        <v>2019</v>
+      </c>
+      <c r="E68" t="s">
         <v>20</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>42</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>122</v>
       </c>
-      <c r="G68" s="1">
+      <c r="H68" s="1">
         <v>44486</v>
       </c>
-      <c r="H68" t="s">
-        <v>24</v>
-      </c>
       <c r="I68" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" t="s">
         <v>141</v>
       </c>
-      <c r="J68" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K68" t="s">
+        <v>166</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>77</v>
       </c>
-      <c r="B69" t="s">
-        <v>57</v>
-      </c>
       <c r="C69" t="s">
         <v>57</v>
       </c>
       <c r="D69" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" t="s">
         <v>20</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>42</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>122</v>
       </c>
-      <c r="G69" s="1">
+      <c r="H69" s="1">
         <v>44486</v>
       </c>
-      <c r="H69" t="s">
-        <v>24</v>
-      </c>
       <c r="I69" t="s">
+        <v>24</v>
+      </c>
+      <c r="J69" t="s">
         <v>141</v>
       </c>
-      <c r="J69" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="S69" t="s">
-        <v>166</v>
-      </c>
-      <c r="U69" t="s">
-        <v>166</v>
-      </c>
-      <c r="W69" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K69" t="s">
+        <v>166</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="T69" t="s">
+        <v>166</v>
+      </c>
+      <c r="V69" t="s">
+        <v>166</v>
+      </c>
+      <c r="X69" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>134</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>146</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>2020</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>20</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>17</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>147</v>
       </c>
-      <c r="G70" s="1">
+      <c r="H70" s="1">
         <v>44486</v>
       </c>
-      <c r="H70" t="s">
-        <v>24</v>
-      </c>
       <c r="I70" t="s">
+        <v>24</v>
+      </c>
+      <c r="J70" t="s">
         <v>141</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>203</v>
       </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>46</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>95</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>2015</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>20</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>42</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>122</v>
       </c>
-      <c r="G71" s="1">
+      <c r="H71" s="1">
         <v>44486</v>
       </c>
-      <c r="H71" t="s">
-        <v>24</v>
-      </c>
       <c r="I71" t="s">
+        <v>24</v>
+      </c>
+      <c r="J71" t="s">
         <v>141</v>
       </c>
-      <c r="J71" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-      <c r="U71" t="s">
-        <v>166</v>
-      </c>
-      <c r="W71" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K71" t="s">
+        <v>166</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="V71" t="s">
+        <v>166</v>
+      </c>
+      <c r="X71" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>135</v>
       </c>
-      <c r="D72" t="s">
+      <c r="C72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72">
+        <v>2016</v>
+      </c>
+      <c r="E72" t="s">
         <v>20</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>42</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>122</v>
       </c>
-      <c r="G72" s="1">
+      <c r="H72" s="1">
         <v>44486</v>
       </c>
-      <c r="H72" t="s">
-        <v>24</v>
-      </c>
       <c r="I72" t="s">
+        <v>24</v>
+      </c>
+      <c r="J72" t="s">
         <v>141</v>
       </c>
-      <c r="J72" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K72" t="s">
+        <v>166</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>136</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>20</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>42</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>122</v>
       </c>
-      <c r="G73" s="1">
+      <c r="H73" s="1">
         <v>44486</v>
       </c>
-      <c r="H73" t="s">
-        <v>24</v>
-      </c>
       <c r="I73" t="s">
+        <v>24</v>
+      </c>
+      <c r="J73" t="s">
         <v>141</v>
       </c>
-      <c r="J73" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K73" t="s">
+        <v>166</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>137</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>12</v>
       </c>
-      <c r="C74" s="2">
+      <c r="D74" s="2">
         <v>44470</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>55</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>17</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>145</v>
       </c>
-      <c r="G74" s="1">
+      <c r="H74" s="1">
         <v>44486</v>
       </c>
-      <c r="H74" t="s">
-        <v>24</v>
-      </c>
       <c r="I74" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" t="s">
         <v>141</v>
       </c>
-      <c r="J74" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-      <c r="U74">
+      <c r="K74" t="s">
+        <v>166</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="V74">
         <v>25</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>27</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z74">
+        <v>29</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>138</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="2">
+      <c r="D75" s="2">
         <v>44470</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>55</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>17</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>145</v>
       </c>
-      <c r="G75" s="1">
+      <c r="H75" s="1">
         <v>44486</v>
       </c>
-      <c r="H75" t="s">
-        <v>24</v>
-      </c>
       <c r="I75" t="s">
+        <v>24</v>
+      </c>
+      <c r="J75" t="s">
         <v>141</v>
       </c>
-      <c r="J75" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="S75">
+      <c r="K75" t="s">
+        <v>166</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="T75">
         <v>1</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>1</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z75">
+        <v>2</v>
+      </c>
+      <c r="AB75">
+        <v>2</v>
+      </c>
+      <c r="AD75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>139</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>143</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>2020</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>20</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>17</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>144</v>
       </c>
-      <c r="G76" s="1">
+      <c r="H76" s="1">
         <v>44486</v>
       </c>
-      <c r="H76" t="s">
-        <v>24</v>
-      </c>
       <c r="I76" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" t="s">
         <v>141</v>
       </c>
-      <c r="J76" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="S76">
+      <c r="K76" t="s">
+        <v>166</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="T76">
         <v>4</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>13</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>14</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z76">
+        <v>15</v>
+      </c>
+      <c r="AB76">
+        <v>19</v>
+      </c>
+      <c r="AD76">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>140</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="2">
+      <c r="D77" s="2">
         <v>44470</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>55</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>17</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>145</v>
       </c>
-      <c r="G77" s="1">
+      <c r="H77" s="1">
         <v>44486</v>
       </c>
-      <c r="H77" t="s">
-        <v>24</v>
-      </c>
       <c r="I77" t="s">
+        <v>24</v>
+      </c>
+      <c r="J77" t="s">
         <v>141</v>
       </c>
-      <c r="J77" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K77" t="s">
+        <v>166</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>2</v>
+      </c>
+      <c r="AB77">
+        <v>4</v>
+      </c>
+      <c r="AD77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>50</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>95</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>2015</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>20</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>42</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>122</v>
       </c>
-      <c r="G78" s="1">
+      <c r="H78" s="1">
         <v>44486</v>
       </c>
-      <c r="H78" t="s">
-        <v>24</v>
-      </c>
       <c r="I78" t="s">
+        <v>24</v>
+      </c>
+      <c r="J78" t="s">
         <v>141</v>
       </c>
-      <c r="J78" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K78" t="s">
+        <v>166</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>41</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>95</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>2015</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>20</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>42</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>122</v>
       </c>
-      <c r="G79" s="1">
+      <c r="H79" s="1">
         <v>44486</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>196</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>141</v>
       </c>
-      <c r="J79" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K79" t="s">
+        <v>166</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>148</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>20</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>42</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>122</v>
       </c>
-      <c r="G80" s="1">
+      <c r="H80" s="1">
         <v>44486</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>196</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>141</v>
       </c>
-      <c r="J80" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K80" t="s">
+        <v>166</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>1</v>
+      </c>
+      <c r="AD80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>149</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="2">
+      <c r="D81" s="2">
         <v>44409</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>153</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>17</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>191</v>
       </c>
-      <c r="G81" s="1">
+      <c r="H81" s="1">
         <v>44486</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>199</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>141</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>204</v>
       </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>9</v>
+      </c>
+      <c r="AB81">
+        <v>15</v>
+      </c>
+      <c r="AD81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>150</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="2">
+      <c r="D82" s="2">
         <v>44409</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>153</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>17</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>191</v>
       </c>
-      <c r="G82" s="1">
+      <c r="H82" s="1">
         <v>44486</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>199</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>141</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>204</v>
       </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>3</v>
+      </c>
+      <c r="AD82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>151</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>132</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>42</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>122</v>
       </c>
-      <c r="G83" s="1">
+      <c r="H83" s="1">
         <v>44486</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>196</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>141</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>204</v>
       </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="S83">
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>173</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="2">
+      <c r="D84" s="2">
         <v>44378</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>20</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>17</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>192</v>
       </c>
-      <c r="G84" s="1">
+      <c r="H84" s="1">
         <v>44213</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>193</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>141</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>203</v>
       </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="S84">
-        <v>0</v>
-      </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>3</v>
+      </c>
+      <c r="AB84">
+        <v>3</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>152</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>11</v>
       </c>
-      <c r="C85" s="2">
+      <c r="D85" s="2">
         <v>44440</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>59</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>17</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>200</v>
       </c>
-      <c r="G85" s="1">
+      <c r="H85" s="1">
         <v>44486</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>194</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>141</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>203</v>
       </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>179</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>31</v>
       </c>
-      <c r="C86" s="2">
+      <c r="D86" s="2">
         <v>44470</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>180</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>17</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>181</v>
       </c>
-      <c r="G86" s="1">
+      <c r="H86" s="1">
         <v>44492</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>195</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>141</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>203</v>
       </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>4</v>
+      </c>
+      <c r="AD86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>182</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>183</v>
       </c>
-      <c r="C87" s="2">
+      <c r="D87" s="2">
         <v>44470</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>180</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>17</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>184</v>
       </c>
-      <c r="G87" s="1">
+      <c r="H87" s="1">
         <v>44492</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>198</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>141</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>203</v>
       </c>
-      <c r="W87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>1</v>
+      </c>
+      <c r="AD87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>185</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>187</v>
       </c>
-      <c r="C88" s="2">
+      <c r="D88" s="2">
         <v>44470</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>180</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>17</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>184</v>
       </c>
-      <c r="G88" s="1">
+      <c r="H88" s="1">
         <v>44492</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>197</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>141</v>
       </c>
-      <c r="J88" t="s">
-        <v>166</v>
-      </c>
-      <c r="W88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K88" t="s">
+        <v>166</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>1</v>
+      </c>
+      <c r="AD88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>186</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>187</v>
       </c>
-      <c r="C89" s="2">
+      <c r="D89" s="2">
         <v>44470</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>180</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>17</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>184</v>
       </c>
-      <c r="G89" s="1">
+      <c r="H89" s="1">
         <v>44492</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>197</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>141</v>
       </c>
-      <c r="J89" t="s">
-        <v>166</v>
-      </c>
-      <c r="W89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K89" t="s">
+        <v>166</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>1</v>
+      </c>
+      <c r="AD89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>188</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="2">
+      <c r="D90" s="2">
         <v>44470</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>180</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>17</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>181</v>
       </c>
-      <c r="G90" s="1">
+      <c r="H90" s="1">
         <v>44492</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>195</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>141</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>203</v>
       </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>189</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>54</v>
       </c>
-      <c r="C91" s="2">
+      <c r="D91" s="2">
         <v>44470</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>55</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>17</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>184</v>
       </c>
-      <c r="G91" s="1">
+      <c r="H91" s="1">
         <v>44492</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>196</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>142</v>
       </c>
-      <c r="J91" t="s">
-        <v>166</v>
-      </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K91" t="s">
+        <v>166</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>190</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>54</v>
       </c>
-      <c r="C92" s="2">
+      <c r="D92" s="2">
         <v>44470</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>55</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>17</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>184</v>
       </c>
-      <c r="G92" s="1">
+      <c r="H92" s="1">
         <v>44492</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>196</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>141</v>
       </c>
-      <c r="J92" t="s">
-        <v>166</v>
-      </c>
-      <c r="W92">
+      <c r="K92" t="s">
+        <v>166</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AD92">
         <v>0</v>
       </c>
     </row>

--- a/resources/volo-data/germimation-experiment.xlsx
+++ b/resources/volo-data/germimation-experiment.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anneliserismann/Documents/GitHub/hdbot/resources/volo-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C81BB5-91A4-C646-8588-9C970A38C0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{445C31E3-C56B-FF4B-8EF3-23426E04FCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3460" windowWidth="28800" windowHeight="16180" xr2:uid="{7911502E-23E9-144C-81EA-E4BDF800C8D6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{7911502E-23E9-144C-81EA-E4BDF800C8D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="236">
   <si>
     <t>Species</t>
   </si>
@@ -616,27 +615,6 @@
     <t>collected and stored in an open glass jar</t>
   </si>
   <si>
-    <t>not a lot of seeds, not optimistic about the germination potential here</t>
-  </si>
-  <si>
-    <t>confirm name</t>
-  </si>
-  <si>
-    <t>not a lot of seeds, maybe 10</t>
-  </si>
-  <si>
-    <t>lots of seeds</t>
-  </si>
-  <si>
-    <t>full of seeds</t>
-  </si>
-  <si>
-    <t>OK number of seeds</t>
-  </si>
-  <si>
-    <t>moderate number of seeds</t>
-  </si>
-  <si>
     <t>collected and stored in a paper bag</t>
   </si>
   <si>
@@ -709,9 +687,6 @@
     <t>2 mushrooms as well</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
     <t>30.10.2021count</t>
   </si>
   <si>
@@ -731,6 +706,42 @@
   </si>
   <si>
     <t>skip</t>
+  </si>
+  <si>
+    <t>03.11.2021_count</t>
+  </si>
+  <si>
+    <t>1 sprout</t>
+  </si>
+  <si>
+    <t>6/7 cells full</t>
+  </si>
+  <si>
+    <t>5 have multiple seedlings</t>
+  </si>
+  <si>
+    <t>full, ship</t>
+  </si>
+  <si>
+    <t>real sprouts, not contamination</t>
+  </si>
+  <si>
+    <t>2-3 sprouts each cell</t>
+  </si>
+  <si>
+    <t>18 sprouts total</t>
+  </si>
+  <si>
+    <t>sprout_count</t>
+  </si>
+  <si>
+    <t>17 sprouts total</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>80% seedlings dead</t>
   </si>
 </sst>
 </file>
@@ -1098,13 +1109,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010A8CA-FF1D-184F-B35B-F43FF65F5364}">
-  <dimension ref="A1:AE92"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF12" sqref="AF12"/>
+      <selection pane="bottomRight" activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1118,7 +1129,7 @@
     <col min="11" max="11" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1141,10 +1152,10 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -1192,19 +1203,25 @@
         <v>177</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1233,7 +1250,7 @@
         <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L2" t="s">
         <v>40</v>
@@ -1272,10 +1289,13 @@
         <v>21</v>
       </c>
       <c r="AD2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1304,7 +1324,7 @@
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L3" t="s">
         <v>40</v>
@@ -1343,10 +1363,13 @@
         <v>18</v>
       </c>
       <c r="AD3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1411,10 +1434,13 @@
         <v>11</v>
       </c>
       <c r="AD4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1443,7 +1469,7 @@
         <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1476,10 +1502,13 @@
         <v>9</v>
       </c>
       <c r="AD5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1508,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1538,10 +1567,13 @@
         <v>5</v>
       </c>
       <c r="AD6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1603,10 +1635,13 @@
         <v>10</v>
       </c>
       <c r="AD7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -1659,10 +1694,13 @@
         <v>11</v>
       </c>
       <c r="AD8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1691,7 +1729,7 @@
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1724,10 +1762,13 @@
         <v>8</v>
       </c>
       <c r="AD9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1756,7 +1797,7 @@
         <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1792,10 +1833,13 @@
         <v>8</v>
       </c>
       <c r="AD10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1824,7 +1868,7 @@
         <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1860,15 +1904,18 @@
         <v>11</v>
       </c>
       <c r="AD11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D12" s="2">
         <v>44378</v>
@@ -1925,10 +1972,13 @@
         <v>0</v>
       </c>
       <c r="AD12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1987,10 +2037,13 @@
         <v>11</v>
       </c>
       <c r="AD13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -2054,8 +2107,11 @@
       <c r="AD14">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2119,8 +2175,11 @@
       <c r="AD15">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2149,7 +2208,7 @@
         <v>161</v>
       </c>
       <c r="K16" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L16" t="s">
         <v>57</v>
@@ -2187,8 +2246,11 @@
       <c r="AD16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2217,7 +2279,7 @@
         <v>161</v>
       </c>
       <c r="K17" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s">
         <v>57</v>
@@ -2255,8 +2317,11 @@
       <c r="AD17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -2282,7 +2347,7 @@
         <v>161</v>
       </c>
       <c r="K18" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s">
         <v>57</v>
@@ -2312,7 +2377,7 @@
         <v>7</v>
       </c>
       <c r="Y18" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Z18">
         <v>7</v>
@@ -2324,7 +2389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -2348,7 +2413,7 @@
         <v>161</v>
       </c>
       <c r="K19" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2375,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2440,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2505,7 +2570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -2570,7 +2635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -2630,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -2681,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="Y24" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Z24">
         <v>6</v>
@@ -2690,13 +2755,13 @@
         <v>7</v>
       </c>
       <c r="AC24" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AD24">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2746,7 +2811,7 @@
         <v>7</v>
       </c>
       <c r="U25" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="V25">
         <v>7</v>
@@ -2764,7 +2829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -2814,7 +2879,7 @@
         <v>7</v>
       </c>
       <c r="U26" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="V26">
         <v>7</v>
@@ -2832,7 +2897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2885,7 +2950,7 @@
         <v>3</v>
       </c>
       <c r="Y27" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="Z27">
         <v>3</v>
@@ -2897,10 +2962,16 @@
         <v>4</v>
       </c>
       <c r="AE27" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="AF27">
+        <v>5</v>
+      </c>
+      <c r="AG27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2929,7 +3000,7 @@
         <v>161</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L28" t="s">
         <v>57</v>
@@ -2956,7 +3027,7 @@
         <v>7</v>
       </c>
       <c r="Y28" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="Z28">
         <v>7</v>
@@ -2967,8 +3038,14 @@
       <c r="AD28">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF28">
+        <v>7</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -2994,7 +3071,7 @@
         <v>161</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L29" t="s">
         <v>57</v>
@@ -3029,8 +3106,11 @@
       <c r="AD29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -3059,7 +3139,7 @@
         <v>161</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L30" t="s">
         <v>57</v>
@@ -3097,8 +3177,11 @@
       <c r="AD30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -3127,7 +3210,7 @@
         <v>161</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L31" t="s">
         <v>57</v>
@@ -3157,7 +3240,7 @@
         <v>4</v>
       </c>
       <c r="Y31" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Z31">
         <v>3</v>
@@ -3166,13 +3249,19 @@
         <v>5</v>
       </c>
       <c r="AC31" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AD31">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF31">
+        <v>6</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -3228,7 +3317,7 @@
         <v>7</v>
       </c>
       <c r="Y32" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Z32">
         <v>7</v>
@@ -3237,13 +3326,19 @@
         <v>7</v>
       </c>
       <c r="AC32" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AD32">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF32">
+        <v>7</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -3310,8 +3405,11 @@
       <c r="AD33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>87</v>
       </c>
@@ -3367,7 +3465,7 @@
         <v>4</v>
       </c>
       <c r="Y34" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Z34">
         <v>5</v>
@@ -3378,8 +3476,14 @@
       <c r="AD34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF34">
+        <v>7</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -3435,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="Y35" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Z35">
         <v>2</v>
@@ -3450,10 +3554,16 @@
         <v>4</v>
       </c>
       <c r="AE35" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+      <c r="AF35">
+        <v>3</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -3509,7 +3619,7 @@
         <v>3</v>
       </c>
       <c r="Y36" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Z36">
         <v>3</v>
@@ -3520,8 +3630,14 @@
       <c r="AD36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF36">
+        <v>5</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -3585,8 +3701,14 @@
       <c r="AD37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF37">
+        <v>1</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -3612,7 +3734,7 @@
         <v>161</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L38" t="s">
         <v>57</v>
@@ -3650,8 +3772,11 @@
       <c r="AD38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -3715,8 +3840,11 @@
       <c r="AD39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -3783,8 +3911,14 @@
       <c r="AD40">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF40">
+        <v>7</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -3848,8 +3982,14 @@
       <c r="AD41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF41">
+        <v>7</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -3875,7 +4015,7 @@
         <v>161</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L42" t="s">
         <v>57</v>
@@ -3913,8 +4053,14 @@
       <c r="AD42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF42">
+        <v>7</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -3940,7 +4086,7 @@
         <v>161</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L43" t="s">
         <v>57</v>
@@ -3978,8 +4124,11 @@
       <c r="AD43">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -4005,7 +4154,7 @@
         <v>161</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L44" t="s">
         <v>57</v>
@@ -4043,8 +4192,11 @@
       <c r="AD44">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -4070,7 +4222,7 @@
         <v>161</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L45" t="s">
         <v>57</v>
@@ -4108,8 +4260,11 @@
       <c r="AD45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -4165,7 +4320,7 @@
         <v>4</v>
       </c>
       <c r="Y46" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Z46">
         <v>4</v>
@@ -4176,8 +4331,14 @@
       <c r="AD46">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF46">
+        <v>7</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -4203,7 +4364,7 @@
         <v>161</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L47" t="s">
         <v>57</v>
@@ -4233,7 +4394,7 @@
         <v>4</v>
       </c>
       <c r="Y47" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Z47">
         <v>5</v>
@@ -4244,8 +4405,14 @@
       <c r="AD47">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF47">
+        <v>6</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -4271,7 +4438,7 @@
         <v>142</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -4294,8 +4461,11 @@
       <c r="AD48">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -4321,7 +4491,7 @@
         <v>141</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -4344,8 +4514,11 @@
       <c r="AD49">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -4371,7 +4544,7 @@
         <v>141</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -4394,8 +4567,11 @@
       <c r="AD50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>108</v>
       </c>
@@ -4421,7 +4597,7 @@
         <v>141</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -4429,6 +4605,9 @@
       <c r="T51" t="s">
         <v>166</v>
       </c>
+      <c r="U51" t="s">
+        <v>234</v>
+      </c>
       <c r="V51" t="s">
         <v>166</v>
       </c>
@@ -4444,8 +4623,11 @@
       <c r="AD51" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -4494,8 +4676,11 @@
       <c r="AD52">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF52">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -4529,6 +4714,9 @@
       <c r="T53" t="s">
         <v>166</v>
       </c>
+      <c r="U53" t="s">
+        <v>234</v>
+      </c>
       <c r="V53" t="s">
         <v>166</v>
       </c>
@@ -4544,8 +4732,14 @@
       <c r="AD53" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF53" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG53">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -4594,10 +4788,13 @@
       <c r="AD54" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C55" t="s">
         <v>57</v>
@@ -4644,8 +4841,11 @@
       <c r="AD55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -4679,6 +4879,9 @@
       <c r="T56" t="s">
         <v>166</v>
       </c>
+      <c r="U56" t="s">
+        <v>234</v>
+      </c>
       <c r="V56" t="s">
         <v>166</v>
       </c>
@@ -4694,8 +4897,11 @@
       <c r="AD56" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -4744,8 +4950,11 @@
       <c r="AD57">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF57">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>113</v>
       </c>
@@ -4771,7 +4980,7 @@
         <v>141</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -4794,8 +5003,11 @@
       <c r="AD58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -4821,7 +5033,7 @@
         <v>141</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="R59">
         <v>0</v>
@@ -4844,8 +5056,11 @@
       <c r="AD59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -4874,7 +5089,7 @@
         <v>141</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -4897,8 +5112,11 @@
       <c r="AD60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -4950,8 +5168,11 @@
       <c r="AD61">
         <v>21</v>
       </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF61">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -5003,8 +5224,11 @@
       <c r="AD62">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>126</v>
       </c>
@@ -5056,8 +5280,11 @@
       <c r="AD63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -5086,7 +5313,7 @@
         <v>141</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="R64">
         <v>0</v>
@@ -5109,8 +5336,11 @@
       <c r="AD64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -5162,8 +5392,11 @@
       <c r="AD65" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF65" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -5218,8 +5451,11 @@
       <c r="AE66" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -5271,8 +5507,11 @@
       <c r="AD67" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF67" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -5324,8 +5563,11 @@
       <c r="AD68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -5377,8 +5619,11 @@
       <c r="AD69" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF69" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>134</v>
       </c>
@@ -5407,7 +5652,7 @@
         <v>141</v>
       </c>
       <c r="K70" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -5430,8 +5675,11 @@
       <c r="AD70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>46</v>
       </c>
@@ -5478,16 +5726,22 @@
         <v>166</v>
       </c>
       <c r="AB71" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AD71" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AE71" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="AF71">
+        <v>15</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>135</v>
       </c>
@@ -5539,8 +5793,11 @@
       <c r="AD72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>136</v>
       </c>
@@ -5586,8 +5843,11 @@
       <c r="AD73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>137</v>
       </c>
@@ -5639,8 +5899,11 @@
       <c r="AD74" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>138</v>
       </c>
@@ -5692,8 +5955,11 @@
       <c r="AD75">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>139</v>
       </c>
@@ -5745,8 +6011,11 @@
       <c r="AD76">
         <v>22</v>
       </c>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF76">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>140</v>
       </c>
@@ -5798,8 +6067,11 @@
       <c r="AD77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>50</v>
       </c>
@@ -5848,11 +6120,14 @@
       <c r="AB78">
         <v>0</v>
       </c>
-      <c r="AD78" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -5875,7 +6150,7 @@
         <v>44486</v>
       </c>
       <c r="I79" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="J79" t="s">
         <v>141</v>
@@ -5904,8 +6179,11 @@
       <c r="AD79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>148</v>
       </c>
@@ -5922,7 +6200,7 @@
         <v>44486</v>
       </c>
       <c r="I80" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="J80" t="s">
         <v>141</v>
@@ -5951,8 +6229,11 @@
       <c r="AD80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>149</v>
       </c>
@@ -5975,13 +6256,13 @@
         <v>44486</v>
       </c>
       <c r="I81" t="s">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="J81" t="s">
         <v>141</v>
       </c>
       <c r="K81" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -6004,8 +6285,11 @@
       <c r="AD81">
         <v>15</v>
       </c>
-    </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF81">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>150</v>
       </c>
@@ -6028,13 +6312,13 @@
         <v>44486</v>
       </c>
       <c r="I82" t="s">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="J82" t="s">
         <v>141</v>
       </c>
       <c r="K82" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -6057,8 +6341,11 @@
       <c r="AD82">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF82">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>151</v>
       </c>
@@ -6075,13 +6362,13 @@
         <v>44486</v>
       </c>
       <c r="I83" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="J83" t="s">
         <v>141</v>
       </c>
       <c r="K83" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -6104,8 +6391,11 @@
       <c r="AD83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>173</v>
       </c>
@@ -6128,13 +6418,13 @@
         <v>44213</v>
       </c>
       <c r="I84" t="s">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="J84" t="s">
         <v>141</v>
       </c>
       <c r="K84" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -6155,13 +6445,16 @@
         <v>3</v>
       </c>
       <c r="AC84" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AD84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>152</v>
       </c>
@@ -6178,19 +6471,19 @@
         <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H85" s="1">
         <v>44486</v>
       </c>
       <c r="I85" t="s">
-        <v>194</v>
+        <v>24</v>
       </c>
       <c r="J85" t="s">
         <v>141</v>
       </c>
       <c r="K85" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -6213,8 +6506,11 @@
       <c r="AD85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>179</v>
       </c>
@@ -6237,13 +6533,13 @@
         <v>44492</v>
       </c>
       <c r="I86" t="s">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="J86" t="s">
         <v>141</v>
       </c>
       <c r="K86" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="X86">
         <v>0</v>
@@ -6257,8 +6553,11 @@
       <c r="AD86">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>182</v>
       </c>
@@ -6281,13 +6580,13 @@
         <v>44492</v>
       </c>
       <c r="I87" t="s">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="J87" t="s">
         <v>141</v>
       </c>
       <c r="K87" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="X87">
         <v>0</v>
@@ -6301,8 +6600,11 @@
       <c r="AD87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>185</v>
       </c>
@@ -6325,7 +6627,7 @@
         <v>44492</v>
       </c>
       <c r="I88" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="J88" t="s">
         <v>141</v>
@@ -6345,8 +6647,11 @@
       <c r="AD88">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>186</v>
       </c>
@@ -6369,7 +6674,7 @@
         <v>44492</v>
       </c>
       <c r="I89" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="J89" t="s">
         <v>141</v>
@@ -6389,8 +6694,11 @@
       <c r="AD89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>188</v>
       </c>
@@ -6413,13 +6721,13 @@
         <v>44492</v>
       </c>
       <c r="I90" t="s">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="J90" t="s">
         <v>141</v>
       </c>
       <c r="K90" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="X90">
         <v>0</v>
@@ -6433,8 +6741,11 @@
       <c r="AD90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>189</v>
       </c>
@@ -6457,7 +6768,7 @@
         <v>44492</v>
       </c>
       <c r="I91" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="J91" t="s">
         <v>142</v>
@@ -6477,8 +6788,11 @@
       <c r="AD91" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF91" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -6501,7 +6815,7 @@
         <v>44492</v>
       </c>
       <c r="I92" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="J92" t="s">
         <v>141</v>
@@ -6520,6 +6834,9 @@
       </c>
       <c r="AD92">
         <v>0</v>
+      </c>
+      <c r="AF92">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
